--- a/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-17.05506495157786</v>
+        <v>17.05506495157785</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-16.8165700144648</v>
+        <v>16.81657001446481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-16.86348889591048</v>
+        <v>16.86348889591047</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-21.50527082542195</v>
+        <v>12.68125396040601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.58082260323349</v>
+        <v>13.80830559103127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.18861252812567</v>
+        <v>14.47554565093748</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-12.68125396040601</v>
+        <v>21.50527082542195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-13.80830559103127</v>
+        <v>19.58082260323348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-14.47554565093747</v>
+        <v>19.18861252812566</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1866588500528108</v>
+        <v>1.976309398507177</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1786314595088608</v>
+        <v>2.870282357044015</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1814299136692785</v>
+        <v>2.391196112435134</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2312714247695691</v>
+        <v>1.197155645997124</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2067994576887611</v>
+        <v>1.97094251788886</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2050478859693466</v>
+        <v>1.797277743988546</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1405824419984498</v>
+        <v>3.12758047689714</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.14879776784688</v>
+        <v>4.095514221814366</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1566013223946321</v>
+        <v>3.153399362289058</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-13.40400371089512</v>
+        <v>13.40400371089511</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-9.121301493844779</v>
+        <v>9.121301493844786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-11.28607855790217</v>
+        <v>11.28607855790217</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.17662871996164</v>
+        <v>10.41907901403029</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.49183658247496</v>
+        <v>6.565880066265197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.30758934483471</v>
+        <v>9.52815472644162</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.41907901403028</v>
+        <v>16.17662871996165</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.565880066265198</v>
+        <v>11.49183658247495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.528154726441629</v>
+        <v>13.3075893448347</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1655642305141483</v>
+        <v>0.7039747319394607</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1104835763753652</v>
+        <v>0.5229499999451699</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1380707554012491</v>
+        <v>0.618119499148894</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1979731974154171</v>
+        <v>0.5098521233568178</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1375273792729886</v>
+        <v>0.3451031868287967</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1608988785779074</v>
+        <v>0.4934755613465031</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1302798826971867</v>
+        <v>0.901336387967406</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.08155893066661013</v>
+        <v>0.7077216620786163</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1172564615929821</v>
+        <v>0.7622367038394514</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-6.553632287188449</v>
+        <v>6.553632287188456</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-5.048547178251106</v>
+        <v>5.048547178251107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-5.785828771832502</v>
+        <v>5.785828771832499</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.98128178598135</v>
+        <v>2.32798076287012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.587895934988996</v>
+        <v>1.165118255221281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.816087203923626</v>
+        <v>2.936780566574408</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.32798076287012</v>
+        <v>10.98128178598138</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.165118255221276</v>
+        <v>8.587895934989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.936780566574416</v>
+        <v>8.816087203923621</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.07465317065590527</v>
+        <v>0.5366431919693172</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.05702144511437893</v>
+        <v>0.4404477209666467</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06562563902068509</v>
+        <v>0.4888393683190347</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.12362809016412</v>
+        <v>0.1727627638935122</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09540998655276244</v>
+        <v>0.07392883557422888</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09821068734390409</v>
+        <v>0.2174528316082251</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02761628538866259</v>
+        <v>1.103124760421172</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01367316651917183</v>
+        <v>0.8763807025932118</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.03410414825903955</v>
+        <v>0.8808045290313045</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-12.94670032096139</v>
+        <v>12.9467003209614</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-10.46657933171383</v>
+        <v>10.46657933171381</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-11.66450249931705</v>
+        <v>11.66450249931705</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.06410814836011</v>
+        <v>10.94608294657642</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.17505131959467</v>
+        <v>8.73852612186043</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.99979250890409</v>
+        <v>10.25548078699276</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.94608294657644</v>
+        <v>15.06410814836011</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-8.738526121860426</v>
+        <v>12.17505131959466</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.25548078699277</v>
+        <v>12.9997925089041</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1534346706930555</v>
+        <v>0.8288135262560595</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.120663281806791</v>
+        <v>0.7894563026393763</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1362876237146492</v>
+        <v>0.8093263778316573</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1776650869926928</v>
+        <v>0.6619145665875744</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1392243610686728</v>
+        <v>0.6168163277653155</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1508675822513294</v>
+        <v>0.6761827547791002</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1305466972377246</v>
+        <v>1.01642049759997</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.101477907470611</v>
+        <v>0.988894403128091</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1208276998074898</v>
+        <v>0.9455927275352005</v>
       </c>
     </row>
     <row r="28">

--- a/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.68125396040601</v>
+        <v>12.53532317878218</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.80830559103127</v>
+        <v>13.95592633260526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.47554565093748</v>
+        <v>14.44545527783846</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.50527082542195</v>
+        <v>20.97512774405677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.58082260323348</v>
+        <v>19.68746213113274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.18861252812566</v>
+        <v>19.30397792998968</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>2.870282357044015</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.391196112435134</v>
+        <v>2.391196112435133</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.197155645997124</v>
+        <v>1.238959187245043</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.97094251788886</v>
+        <v>1.96538658929156</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.797277743988546</v>
+        <v>1.830240254339385</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.12758047689714</v>
+        <v>2.941289694145512</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.095514221814366</v>
+        <v>4.204674898045587</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.153399362289058</v>
+        <v>3.16026211709779</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>13.40400371089511</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>9.121301493844786</v>
+        <v>9.121301493844779</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>11.28607855790217</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.41907901403029</v>
+        <v>10.55121357066883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.565880066265197</v>
+        <v>6.830918679965606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.52815472644162</v>
+        <v>9.599955576210228</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.17662871996165</v>
+        <v>16.58544814864324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.49183658247495</v>
+        <v>11.7987849640377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.3075893448347</v>
+        <v>13.28691565103196</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.7039747319394607</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.5229499999451699</v>
+        <v>0.5229499999451696</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.618119499148894</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5098521233568178</v>
+        <v>0.5183267194694542</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3451031868287967</v>
+        <v>0.3703957726370233</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4934755613465031</v>
+        <v>0.5033781078476725</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.901336387967406</v>
+        <v>0.9282786961720166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7077216620786163</v>
+        <v>0.7317342681994313</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7622367038394514</v>
+        <v>0.7624179915823254</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.553632287188456</v>
+        <v>6.553632287188453</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>5.048547178251107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.785828771832499</v>
+        <v>5.785828771832502</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.32798076287012</v>
+        <v>2.788342257609087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.165118255221281</v>
+        <v>1.359778604967409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.936780566574408</v>
+        <v>3.005027118607458</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.98128178598138</v>
+        <v>11.08943706103985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.587895934989</v>
+        <v>8.782534362895834</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.816087203923621</v>
+        <v>8.677615141247809</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.5366431919693172</v>
+        <v>0.536643191969317</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.4404477209666467</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4888393683190347</v>
+        <v>0.488839368319035</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1727627638935122</v>
+        <v>0.185531663555869</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07392883557422888</v>
+        <v>0.1012040237019635</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2174528316082251</v>
+        <v>0.2200249294350932</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.103124760421172</v>
+        <v>1.108980105248309</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8763807025932118</v>
+        <v>0.9554214573025459</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8808045290313045</v>
+        <v>0.8407081460334048</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.94608294657642</v>
+        <v>10.97029152196644</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.73852612186043</v>
+        <v>8.687994374376551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.25548078699276</v>
+        <v>10.22352580666931</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.06410814836011</v>
+        <v>14.92693009238129</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.17505131959466</v>
+        <v>12.08599237484173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.9997925089041</v>
+        <v>13.14181474038792</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.8288135262560595</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.7894563026393763</v>
+        <v>0.7894563026393767</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8093263778316573</v>
+        <v>0.809326377831657</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6619145665875744</v>
+        <v>0.6643151272234904</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.6168163277653155</v>
+        <v>0.6105323795256802</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6761827547791002</v>
+        <v>0.6869331780877463</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.01642049759997</v>
+        <v>1.017854759846707</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.988894403128091</v>
+        <v>0.9688739023045815</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9455927275352005</v>
+        <v>0.9560225922414923</v>
       </c>
     </row>
     <row r="28">
